--- a/Project/Table of Aouidate data.xlsx
+++ b/Project/Table of Aouidate data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themarchhare/Documents/GitHub/Project/Molecular Structures Real/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themarchhare/Documents/GitHub/Wolfram-Summer-School-2018/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="980" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2208,9 +2208,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2442,7 +2443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2589,6 +2590,7 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3065,11 +3067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="825460240"/>
-        <c:axId val="825462560"/>
+        <c:axId val="940877696"/>
+        <c:axId val="940880016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="825460240"/>
+        <c:axId val="940877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -3126,12 +3128,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825462560"/>
+        <c:crossAx val="940880016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="825462560"/>
+        <c:axId val="940880016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3188,7 +3190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825460240"/>
+        <c:crossAx val="940877696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3645,11 +3647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="825484848"/>
-        <c:axId val="710781568"/>
+        <c:axId val="871992688"/>
+        <c:axId val="871995168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="825484848"/>
+        <c:axId val="871992688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3705,12 +3707,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710781568"/>
+        <c:crossAx val="871995168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="710781568"/>
+        <c:axId val="871995168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,7 +3768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825484848"/>
+        <c:crossAx val="871992688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,11 +4270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="711837120"/>
-        <c:axId val="711540240"/>
+        <c:axId val="941720160"/>
+        <c:axId val="941722640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="711837120"/>
+        <c:axId val="941720160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,12 +4331,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711540240"/>
+        <c:crossAx val="941722640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="711540240"/>
+        <c:axId val="941722640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711837120"/>
+        <c:crossAx val="941720160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4843,11 +4845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="824508304"/>
-        <c:axId val="824510352"/>
+        <c:axId val="941747936"/>
+        <c:axId val="941750416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="824508304"/>
+        <c:axId val="941747936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4903,12 +4905,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824510352"/>
+        <c:crossAx val="941750416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="824510352"/>
+        <c:axId val="941750416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4964,7 +4966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824508304"/>
+        <c:crossAx val="941747936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5467,11 +5469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="824528496"/>
-        <c:axId val="824530976"/>
+        <c:axId val="941774096"/>
+        <c:axId val="941776576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="824528496"/>
+        <c:axId val="941774096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5528,12 +5530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824530976"/>
+        <c:crossAx val="941776576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="824530976"/>
+        <c:axId val="941776576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5589,7 +5591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824528496"/>
+        <c:crossAx val="941774096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6092,11 +6094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="824555120"/>
-        <c:axId val="824557600"/>
+        <c:axId val="941800352"/>
+        <c:axId val="941802832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="824555120"/>
+        <c:axId val="941800352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,12 +6154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824557600"/>
+        <c:crossAx val="941802832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="824557600"/>
+        <c:axId val="941802832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +6215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824555120"/>
+        <c:crossAx val="941800352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6666,11 +6668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="824575456"/>
-        <c:axId val="824577936"/>
+        <c:axId val="941823504"/>
+        <c:axId val="941825984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="824575456"/>
+        <c:axId val="941823504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6726,12 +6728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824577936"/>
+        <c:crossAx val="941825984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="824577936"/>
+        <c:axId val="941825984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6787,7 +6789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824575456"/>
+        <c:crossAx val="941823504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7290,11 +7292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="824605312"/>
-        <c:axId val="824607792"/>
+        <c:axId val="941849168"/>
+        <c:axId val="941851648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="824605312"/>
+        <c:axId val="941849168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7350,12 +7352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824607792"/>
+        <c:crossAx val="941851648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="824607792"/>
+        <c:axId val="941851648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7411,7 +7413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824605312"/>
+        <c:crossAx val="941849168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7883,11 +7885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="824630496"/>
-        <c:axId val="824632976"/>
+        <c:axId val="941874656"/>
+        <c:axId val="941877136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="824630496"/>
+        <c:axId val="941874656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.5"/>
@@ -7944,12 +7946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824632976"/>
+        <c:crossAx val="941877136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="824632976"/>
+        <c:axId val="941877136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8005,7 +8007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824630496"/>
+        <c:crossAx val="941874656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13603,8 +13605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15707,7 +15709,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="22"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="12"/>
       <c r="E49" s="26"/>
       <c r="F49" s="12"/>
